--- a/data_in/bridges/exio3.to.ThreeME_c28.xlsx
+++ b/data_in/bridges/exio3.to.ThreeME_c28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/Professionnel/Github/EmissionsIndicators/data_in/bridges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF694B43-A0B0-CD4B-AE5C-BF01AE025172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358B229-1CC8-4B4B-803B-C0F1513AD13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,21 +767,21 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19020,7 +19020,10 @@
   <dimension ref="A1:GS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="GS29" sqref="B2:GS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31954,7 +31957,7 @@
         <v>0</v>
       </c>
       <c r="BV22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -33164,7 +33167,7 @@
         <v>0</v>
       </c>
       <c r="BV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW24">
         <v>0</v>
@@ -36575,11 +36578,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:GS29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
       <formula>0.000001</formula>
       <formula>0.999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
